--- a/repo/js/自动精英锄地规划/info.xlsx
+++ b/repo/js/自动精英锄地规划/info.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="295">
   <si>
     <t>001璃月沉玉谷南陵 传奇 1200摩拉x2只.每只占2精英位</t>
   </si>
@@ -545,6 +545,9 @@
     <t>邦邦硬的大灵,拉不动还难打</t>
   </si>
   <si>
+    <t>关键词数据</t>
+  </si>
+  <si>
     <t>是否传奇</t>
   </si>
   <si>
@@ -590,7 +593,7 @@
     <t>107蒙德风龙废墟南（600_1，200_2）</t>
   </si>
   <si>
-    <t>201璃月离沙郊（600_1,200_2）</t>
+    <t>201璃月离沙郊（600_1，200_2）</t>
   </si>
   <si>
     <t>202【高危】璃月灵矩关（200_4）</t>
@@ -620,7 +623,7 @@
     <t>210璃月南天门（600_2，200_2）</t>
   </si>
   <si>
-    <t>211璃月虎牢山（600_1,200_5）</t>
+    <t>211璃月虎牢山（600_1，200_5）</t>
   </si>
   <si>
     <t>212璃月绝云间南（600_1，200_2）</t>
@@ -1863,8 +1866,8 @@
   <sheetPr/>
   <dimension ref="A2:L194"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E143"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2697,7 +2700,6 @@
       <c r="A57" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B57"/>
       <c r="D57">
         <v>2</v>
       </c>
@@ -2788,7 +2790,6 @@
       <c r="A63" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B63"/>
       <c r="D63">
         <v>2</v>
       </c>
@@ -2923,7 +2924,6 @@
       <c r="A73" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B73"/>
       <c r="D73">
         <v>9</v>
       </c>
@@ -3008,7 +3008,6 @@
       <c r="A79" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B79"/>
       <c r="D79">
         <v>9</v>
       </c>
@@ -3040,7 +3039,6 @@
       <c r="A81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B81"/>
       <c r="D81">
         <v>6</v>
       </c>
@@ -3109,7 +3107,6 @@
       <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B85"/>
       <c r="D85">
         <v>3</v>
       </c>
@@ -3141,7 +3138,6 @@
       <c r="A87" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B87"/>
       <c r="D87">
         <v>7</v>
       </c>
@@ -3289,7 +3285,6 @@
       <c r="A96" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B96"/>
       <c r="D96">
         <v>3</v>
       </c>
@@ -3310,7 +3305,6 @@
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97"/>
       <c r="D97">
         <v>1</v>
       </c>
@@ -3328,7 +3322,6 @@
       <c r="A98" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B98"/>
       <c r="C98">
         <v>2</v>
       </c>
@@ -3394,7 +3387,6 @@
       <c r="A102" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B102"/>
       <c r="D102">
         <v>2</v>
       </c>
@@ -3440,7 +3432,6 @@
       <c r="A105" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B105"/>
       <c r="D105">
         <v>7</v>
       </c>
@@ -3466,7 +3457,6 @@
       <c r="A107" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B107"/>
       <c r="D107">
         <v>2</v>
       </c>
@@ -3526,7 +3516,6 @@
       <c r="A111" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B111"/>
       <c r="D111">
         <v>3</v>
       </c>
@@ -3592,7 +3581,6 @@
       <c r="A115" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B115"/>
       <c r="D115">
         <v>2</v>
       </c>
@@ -3613,7 +3601,6 @@
       <c r="B116">
         <v>1</v>
       </c>
-      <c r="C116"/>
       <c r="D116">
         <v>2</v>
       </c>
@@ -3668,7 +3655,6 @@
       <c r="A119" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B119"/>
       <c r="C119">
         <v>2</v>
       </c>
@@ -3748,7 +3734,6 @@
       <c r="A124" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B124"/>
       <c r="D124">
         <v>6</v>
       </c>
@@ -3794,8 +3779,6 @@
       <c r="A127" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B127"/>
-      <c r="C127"/>
       <c r="D127">
         <v>3</v>
       </c>
@@ -3841,8 +3824,6 @@
       <c r="B130">
         <v>4</v>
       </c>
-      <c r="C130"/>
-      <c r="D130"/>
       <c r="E130">
         <v>11.01</v>
       </c>
@@ -3854,7 +3835,6 @@
       <c r="A131" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B131"/>
       <c r="C131">
         <v>3</v>
       </c>
@@ -3872,8 +3852,6 @@
       <c r="B132">
         <v>1</v>
       </c>
-      <c r="C132"/>
-      <c r="D132"/>
       <c r="E132">
         <v>9.84</v>
       </c>
@@ -3967,7 +3945,6 @@
       <c r="A138" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B138"/>
       <c r="D138">
         <v>1</v>
       </c>
@@ -4225,8 +4202,8 @@
   <sheetPr/>
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="A1:K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4236,21 +4213,24 @@
     <col min="15" max="15" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G1">
         <v>600</v>
@@ -4262,10 +4242,10 @@
         <v>200</v>
       </c>
       <c r="J1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:11">
@@ -4301,7 +4281,7 @@
         <v>16.55</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:11">
@@ -4337,7 +4317,7 @@
         <v>11.24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:11">
@@ -4373,7 +4353,7 @@
         <v>12.05</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:11">
@@ -4409,7 +4389,7 @@
         <v>12.61</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:11">
@@ -4445,7 +4425,7 @@
         <v>16.57</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:11">
@@ -4481,7 +4461,7 @@
         <v>15.61</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:11">
@@ -4517,7 +4497,7 @@
         <v>4.65</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:11">
@@ -4553,7 +4533,7 @@
         <v>9.28</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:11">
@@ -4589,7 +4569,7 @@
         <v>14.11</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:11">
@@ -4625,7 +4605,7 @@
         <v>5.33</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:11">
@@ -4661,7 +4641,7 @@
         <v>5.71</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:11">
@@ -4697,7 +4677,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:11">
@@ -4733,7 +4713,7 @@
         <v>8.16</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:11">
@@ -4769,7 +4749,7 @@
         <v>11.65</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:11">
@@ -4805,7 +4785,7 @@
         <v>5.83</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:11">
@@ -4841,7 +4821,7 @@
         <v>9.19</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:11">
@@ -4877,7 +4857,7 @@
         <v>16.03</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:11">
@@ -4913,7 +4893,7 @@
         <v>13.08</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:11">
@@ -4949,7 +4929,7 @@
         <v>10.84</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:11">
@@ -4985,7 +4965,7 @@
         <v>11.24</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:11">
@@ -5021,7 +5001,7 @@
         <v>16.98</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:11">
@@ -5057,7 +5037,7 @@
         <v>20</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:11">
@@ -5093,7 +5073,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:11">
@@ -5129,7 +5109,7 @@
         <v>16.41</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:11">
@@ -5165,7 +5145,7 @@
         <v>15.29</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:11">
@@ -5201,7 +5181,7 @@
         <v>10.32</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:11">
@@ -5237,7 +5217,7 @@
         <v>9.76</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:11">
@@ -5273,7 +5253,7 @@
         <v>13.53</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:11">
@@ -5309,7 +5289,7 @@
         <v>16.97</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:11">
@@ -5345,7 +5325,7 @@
         <v>18.87</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:11">
@@ -5381,7 +5361,7 @@
         <v>17.39</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:11">
@@ -5417,7 +5397,7 @@
         <v>10.91</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:11">
@@ -5453,7 +5433,7 @@
         <v>13.24</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:11">
@@ -5489,7 +5469,7 @@
         <v>13.7</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:11">
@@ -5525,7 +5505,7 @@
         <v>13.38</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:11">
@@ -5561,7 +5541,7 @@
         <v>10.06</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:11">
@@ -5597,7 +5577,7 @@
         <v>14.49</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:11">
@@ -5633,7 +5613,7 @@
         <v>11.64</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:11">
@@ -5669,7 +5649,7 @@
         <v>9.41</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:11">
@@ -5705,7 +5685,7 @@
         <v>10.94</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:11">
@@ -5741,7 +5721,7 @@
         <v>12.06</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:11">
@@ -5777,7 +5757,7 @@
         <v>13.61</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:11">
@@ -5813,7 +5793,7 @@
         <v>5</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:11">
@@ -5957,7 +5937,7 @@
         <v>11.21</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:11">
@@ -5993,7 +5973,7 @@
         <v>15.19</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:11">
@@ -6209,7 +6189,7 @@
         <v>13.94</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:11">
@@ -6245,7 +6225,7 @@
         <v>11.85</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:11">
@@ -6281,7 +6261,7 @@
         <v>13.79</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:11">
@@ -6317,7 +6297,7 @@
         <v>9.64</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:11">
@@ -6353,7 +6333,7 @@
         <v>10.86</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="1:11">
@@ -6389,7 +6369,7 @@
         <v>12.69</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:11">
@@ -6425,7 +6405,7 @@
         <v>10</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:11">
@@ -6461,7 +6441,7 @@
         <v>6.37</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:11">
@@ -6497,7 +6477,7 @@
         <v>10.26</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:11">
@@ -6533,7 +6513,7 @@
         <v>11.73</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:11">
@@ -6569,7 +6549,7 @@
         <v>13.66</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:11">
@@ -6605,7 +6585,7 @@
         <v>10.13</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:11">
@@ -6641,7 +6621,7 @@
         <v>16.67</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:11">
@@ -6677,7 +6657,7 @@
         <v>18.75</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:11">
@@ -6713,7 +6693,7 @@
         <v>12.9</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:11">
@@ -6749,7 +6729,7 @@
         <v>13.11</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:11">
@@ -6785,7 +6765,7 @@
         <v>10.86</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" ht="14.25" spans="1:11">
@@ -6821,7 +6801,7 @@
         <v>10.09</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:11">
@@ -6857,7 +6837,7 @@
         <v>11.25</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" ht="28.5" spans="1:11">
@@ -6893,7 +6873,7 @@
         <v>8</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:11">
@@ -6929,7 +6909,7 @@
         <v>18.25</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:11">
@@ -7145,7 +7125,7 @@
         <v>5.5</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:11">
@@ -7181,7 +7161,7 @@
         <v>13.35</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:11">
@@ -7577,7 +7557,7 @@
         <v>17.14</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:11">
@@ -7613,7 +7593,7 @@
         <v>4.88</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:11">
@@ -7649,7 +7629,7 @@
         <v>6.56</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:11">
@@ -7685,7 +7665,7 @@
         <v>4.44</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" ht="14.25" spans="1:11">
@@ -7721,7 +7701,7 @@
         <v>8.54</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:11">
@@ -7757,7 +7737,7 @@
         <v>20</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:11">
@@ -7777,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" ref="F99:F130" si="3">G99+H99+I99</f>
+        <f t="shared" ref="F99:F143" si="3">G99+H99+I99</f>
         <v>2</v>
       </c>
       <c r="G99">
@@ -7793,7 +7773,7 @@
         <v>12.08</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:11">
@@ -7829,7 +7809,7 @@
         <v>27.91</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:11">
@@ -7865,7 +7845,7 @@
         <v>8.04</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:11">
@@ -7901,7 +7881,7 @@
         <v>8.7</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:11">
@@ -7937,7 +7917,7 @@
         <v>14.18</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:11">
@@ -7973,7 +7953,7 @@
         <v>7.84</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:11">
@@ -8009,7 +7989,7 @@
         <v>13.44</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:11">
@@ -8045,7 +8025,7 @@
         <v>12.77</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:11">
@@ -8081,7 +8061,7 @@
         <v>8.7</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:11">
@@ -8117,7 +8097,7 @@
         <v>10.53</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:11">
@@ -8153,7 +8133,7 @@
         <v>11.73</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:11">
@@ -8189,7 +8169,7 @@
         <v>10.75</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:11">
@@ -8225,7 +8205,7 @@
         <v>4.65</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:11">
@@ -8261,7 +8241,7 @@
         <v>10.02</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:11">
@@ -8297,7 +8277,7 @@
         <v>12.75</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:11">
@@ -8333,7 +8313,7 @@
         <v>8.27</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" ht="14.25" spans="1:11">
@@ -8369,7 +8349,7 @@
         <v>4.6</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116" ht="14.25" spans="1:11">
@@ -8405,7 +8385,7 @@
         <v>14.78</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" ht="14.25" spans="1:11">
@@ -8477,7 +8457,7 @@
         <v>12.5</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" ht="14.25" spans="1:11">
@@ -8513,7 +8493,7 @@
         <v>18.75</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" ht="28.5" spans="1:11">
@@ -8549,7 +8529,7 @@
         <v>10.13</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" ht="13" customHeight="1" spans="1:11">
@@ -8621,7 +8601,7 @@
         <v>8</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" ht="14.25" spans="1:11">
@@ -8657,7 +8637,7 @@
         <v>7.67</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" ht="14.25" spans="1:11">
@@ -8693,7 +8673,7 @@
         <v>9.3</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" ht="14.25" spans="1:11">
@@ -8729,7 +8709,7 @@
         <v>9.89</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" ht="14.25" spans="1:11">
@@ -8765,7 +8745,7 @@
         <v>8.9</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" ht="14.25" spans="1:11">
@@ -8801,7 +8781,7 @@
         <v>11.11</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" ht="14.25" spans="1:11">
@@ -8837,7 +8817,7 @@
         <v>9.59</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" ht="14.25" spans="1:11">
@@ -8873,7 +8853,7 @@
         <v>13.46</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" ht="14.25" spans="1:11">
@@ -8909,7 +8889,7 @@
         <v>11.01</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" ht="14.25" spans="1:11">
@@ -8929,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <f>G131+H131+I131</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="G131">
@@ -8945,7 +8925,7 @@
         <v>8.6</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" ht="14.25" spans="1:11">
@@ -8965,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <f>G132+H132+I132</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G132">
@@ -8981,7 +8961,7 @@
         <v>9.84</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" ht="14.25" spans="1:11">
@@ -9001,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <f>G133+H133+I133</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G133">
@@ -9017,7 +8997,7 @@
         <v>7.77</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" ht="14.25" spans="1:11">
@@ -9037,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <f>G134+H134+I134</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G134">
@@ -9053,7 +9033,7 @@
         <v>10</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" ht="14.25" spans="1:11">
@@ -9073,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <f>G135+H135+I135</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G135">
@@ -9089,7 +9069,7 @@
         <v>5.41</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" ht="14.25" spans="1:11">
@@ -9109,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <f>G136+H136+I136</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G136">
@@ -9125,7 +9105,7 @@
         <v>4.51</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" ht="14.25" spans="1:11">
@@ -9145,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <f>G137+H137+I137</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G137">
@@ -9161,7 +9141,7 @@
         <v>4.76</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" ht="14.25" spans="1:11">
@@ -9181,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <f>G138+H138+I138</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G138">
@@ -9197,7 +9177,7 @@
         <v>10.74</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139" ht="14.25" spans="1:11">
@@ -9217,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <f>G139+H139+I139</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G139">
@@ -9233,7 +9213,7 @@
         <v>12.97</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" ht="14.25" spans="1:11">
@@ -9253,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <f>G140+H140+I140</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G140">
@@ -9269,7 +9249,7 @@
         <v>2.13</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" ht="14.25" spans="1:11">
@@ -9289,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <f>G141+H141+I141</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G141">
@@ -9305,7 +9285,7 @@
         <v>5.58</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" ht="14.25" spans="1:11">
@@ -9325,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <f>G142+H142+I142</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G142">
@@ -9341,7 +9321,7 @@
         <v>4.31</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="143" ht="14.25" spans="1:11">
@@ -9361,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <f>G143+H143+I143</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G143">
@@ -9377,7 +9357,7 @@
         <v>4.44</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" ht="14.25" spans="1:1">

--- a/repo/js/自动精英锄地规划/info.xlsx
+++ b/repo/js/自动精英锄地规划/info.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\bettergi-scripts-list\repo\js\自动精英锄地规划\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD51BCB1-7826-493A-AA62-8E7B03CBBE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30000" windowHeight="14340"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="index" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$H$1:$O$118</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$J$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">index!$H$1:$O$118</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -554,12 +571,6 @@
   </si>
   <si>
     <t>怪物数量</t>
-  </si>
-  <si>
-    <t>秒均</t>
-  </si>
-  <si>
-    <t>路线名称</t>
   </si>
   <si>
     <t>001璃月沉玉谷南陵 传奇</t>
@@ -594,6 +605,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>蒙德风龙废墟南（</t>
@@ -603,7 +615,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>600_1</t>
     </r>
@@ -612,6 +624,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -621,7 +634,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>200_2</t>
     </r>
@@ -630,6 +643,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -639,7 +653,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -648,6 +662,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>狂风之核</t>
@@ -657,7 +672,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
@@ -666,6 +681,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>丘丘暴徒</t>
@@ -1082,6 +1098,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>纳塔硫晶支脉（</t>
@@ -1091,7 +1108,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>200_1</t>
     </r>
@@ -1100,6 +1117,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -1109,7 +1127,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1118,6 +1136,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>秘源机兵</t>
@@ -1132,6 +1151,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>纳塔硫晶支脉（</t>
@@ -1141,7 +1161,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>200_1</t>
     </r>
@@ -1150,6 +1170,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -1173,19 +1194,23 @@
   <si>
     <t>616纳塔火山安饶之野西北海滩（200_2）</t>
   </si>
+  <si>
+    <t>秒均</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,354 +1222,40 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1552,259 +1263,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1813,62 +1282,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2118,24 +1549,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P135" sqref="P135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="68.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2175,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,7 +1616,6 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3"/>
       <c r="E3">
         <v>2</v>
       </c>
@@ -2202,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2225,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2235,7 +1665,6 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5"/>
       <c r="E5">
         <v>4</v>
       </c>
@@ -2252,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2272,7 +1701,7 @@
         <v>16.57</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2292,7 +1721,7 @@
         <v>15.61</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -2306,7 +1735,7 @@
         <v>400</v>
       </c>
       <c r="I8">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J8" t="s">
         <v>9</v>
@@ -2315,7 +1744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2325,7 +1754,6 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9"/>
       <c r="E9">
         <v>2</v>
       </c>
@@ -2336,13 +1764,13 @@
         <v>1225</v>
       </c>
       <c r="I9">
-        <v>9.28</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="J9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2352,7 +1780,6 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10"/>
       <c r="E10">
         <v>2</v>
       </c>
@@ -2369,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2392,7 +1819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -2415,7 +1842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -2425,7 +1852,6 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13"/>
       <c r="E13">
         <v>1</v>
       </c>
@@ -2442,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -2462,7 +1888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -2482,7 +1908,7 @@
         <v>11.65</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2505,7 +1931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2528,7 +1954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -2538,7 +1964,6 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18"/>
       <c r="E18">
         <v>4</v>
       </c>
@@ -2555,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -2565,7 +1990,6 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19"/>
       <c r="E19">
         <v>2</v>
       </c>
@@ -2582,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -2592,7 +2016,6 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20"/>
       <c r="E20">
         <v>5</v>
       </c>
@@ -2609,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -2619,7 +2042,6 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21"/>
       <c r="E21">
         <v>2</v>
       </c>
@@ -2636,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -2656,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -2666,7 +2088,6 @@
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23"/>
       <c r="E23">
         <v>2</v>
       </c>
@@ -2680,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -2690,7 +2111,6 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24"/>
       <c r="E24">
         <v>1</v>
       </c>
@@ -2704,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -2727,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -2750,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -2760,7 +2180,6 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27"/>
       <c r="E27">
         <v>1</v>
       </c>
@@ -2777,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -2797,7 +2216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -2820,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -2843,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -2853,7 +2272,6 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31"/>
       <c r="E31">
         <v>2</v>
       </c>
@@ -2867,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -2877,7 +2295,6 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32"/>
       <c r="E32">
         <v>1</v>
       </c>
@@ -2891,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -2908,7 +2325,7 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -2928,7 +2345,7 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -2938,7 +2355,6 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35"/>
       <c r="E35">
         <v>2</v>
       </c>
@@ -2952,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -2972,7 +2388,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -2989,7 +2405,7 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -2999,7 +2415,6 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38"/>
       <c r="E38">
         <v>2</v>
       </c>
@@ -3013,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -3036,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -3056,7 +2471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -3066,7 +2481,6 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41"/>
       <c r="E41">
         <v>4</v>
       </c>
@@ -3080,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -3090,7 +2504,6 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42"/>
       <c r="E42">
         <v>1</v>
       </c>
@@ -3107,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -3130,7 +2543,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
@@ -3153,7 +2566,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
@@ -3173,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>53</v>
       </c>
@@ -3193,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>54</v>
       </c>
@@ -3210,7 +2623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>55</v>
       </c>
@@ -3230,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -3250,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
@@ -3270,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -3290,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>59</v>
       </c>
@@ -3310,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>60</v>
       </c>
@@ -3333,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>61</v>
       </c>
@@ -3347,13 +2760,13 @@
         <v>600</v>
       </c>
       <c r="I54">
-        <v>8.96</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="J54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>62</v>
       </c>
@@ -3363,8 +2776,6 @@
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55"/>
-      <c r="E55"/>
       <c r="H55">
         <v>600</v>
       </c>
@@ -3375,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>63</v>
       </c>
@@ -3385,7 +2796,6 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56"/>
       <c r="E56">
         <v>1</v>
       </c>
@@ -3402,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>64</v>
       </c>
@@ -3412,7 +2822,6 @@
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57"/>
       <c r="E57">
         <v>5</v>
       </c>
@@ -3426,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>65</v>
       </c>
@@ -3443,7 +2852,7 @@
         <v>13.79</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>66</v>
       </c>
@@ -3469,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
@@ -3479,8 +2888,6 @@
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60"/>
-      <c r="E60"/>
       <c r="F60">
         <v>5</v>
       </c>
@@ -3497,7 +2904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" ht="28.8" spans="1:10">
+    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>69</v>
       </c>
@@ -3507,7 +2914,6 @@
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61"/>
       <c r="E61">
         <v>19</v>
       </c>
@@ -3524,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>70</v>
       </c>
@@ -3541,7 +2947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>71</v>
       </c>
@@ -3564,7 +2970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>73</v>
       </c>
@@ -3587,7 +2993,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>75</v>
       </c>
@@ -3597,8 +3003,6 @@
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65"/>
-      <c r="E65"/>
       <c r="F65">
         <v>1</v>
       </c>
@@ -3612,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>76</v>
       </c>
@@ -3622,7 +3026,6 @@
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66"/>
       <c r="E66">
         <v>5</v>
       </c>
@@ -3639,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>77</v>
       </c>
@@ -3649,7 +3052,6 @@
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67"/>
       <c r="E67">
         <v>4</v>
       </c>
@@ -3660,13 +3062,13 @@
         <v>1580</v>
       </c>
       <c r="I67">
-        <v>10.13</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="J67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>78</v>
       </c>
@@ -3680,10 +3082,10 @@
         <v>400</v>
       </c>
       <c r="I68">
-        <v>16.67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>79</v>
       </c>
@@ -3700,7 +3102,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>80</v>
       </c>
@@ -3720,7 +3122,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>81</v>
       </c>
@@ -3740,7 +3142,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>83</v>
       </c>
@@ -3760,7 +3162,7 @@
         <v>10.86</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>84</v>
       </c>
@@ -3780,15 +3182,13 @@
         <v>10.09</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B74">
         <v>184</v>
       </c>
-      <c r="C74"/>
-      <c r="D74"/>
       <c r="E74">
         <v>9</v>
       </c>
@@ -3802,7 +3202,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="75" ht="28.8" spans="1:10">
+    <row r="75" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>86</v>
       </c>
@@ -3831,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>87</v>
       </c>
@@ -3857,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>88</v>
       </c>
@@ -3874,7 +3274,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>89</v>
       </c>
@@ -3891,7 +3291,7 @@
         <v>15.09</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>90</v>
       </c>
@@ -3911,7 +3311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" ht="28.8" spans="1:10">
+    <row r="80" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>91</v>
       </c>
@@ -3931,7 +3331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" ht="28.8" spans="1:10">
+    <row r="81" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>92</v>
       </c>
@@ -3941,7 +3341,6 @@
       <c r="C81">
         <v>2</v>
       </c>
-      <c r="D81"/>
       <c r="E81">
         <v>2</v>
       </c>
@@ -3958,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>93</v>
       </c>
@@ -3978,7 +3377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" ht="28.8" spans="1:10">
+    <row r="83" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>94</v>
       </c>
@@ -3988,7 +3387,6 @@
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83"/>
       <c r="E83">
         <v>3</v>
       </c>
@@ -4005,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>95</v>
       </c>
@@ -4015,7 +3413,6 @@
       <c r="C84">
         <v>1</v>
       </c>
-      <c r="D84"/>
       <c r="E84">
         <v>1</v>
       </c>
@@ -4032,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" ht="28.8" spans="1:12">
+    <row r="85" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
@@ -4042,7 +3439,6 @@
       <c r="C85">
         <v>1</v>
       </c>
-      <c r="D85"/>
       <c r="E85">
         <v>7</v>
       </c>
@@ -4062,7 +3458,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>98</v>
       </c>
@@ -4082,7 +3478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" ht="28.8" spans="1:10">
+    <row r="87" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>99</v>
       </c>
@@ -4092,7 +3488,6 @@
       <c r="C87">
         <v>2</v>
       </c>
-      <c r="D87"/>
       <c r="E87">
         <v>7</v>
       </c>
@@ -4106,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>100</v>
       </c>
@@ -4120,13 +3515,13 @@
         <v>1400</v>
       </c>
       <c r="I88">
-        <v>9.79</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="J88" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>101</v>
       </c>
@@ -4152,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>102</v>
       </c>
@@ -4162,8 +3557,6 @@
       <c r="C90">
         <v>1</v>
       </c>
-      <c r="D90"/>
-      <c r="E90"/>
       <c r="H90">
         <v>600</v>
       </c>
@@ -4174,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>103</v>
       </c>
@@ -4184,7 +3577,6 @@
       <c r="C91">
         <v>2</v>
       </c>
-      <c r="D91"/>
       <c r="E91">
         <v>2</v>
       </c>
@@ -4198,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" ht="28.8" spans="1:10">
+    <row r="92" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>104</v>
       </c>
@@ -4208,7 +3600,6 @@
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92"/>
       <c r="E92">
         <v>4</v>
       </c>
@@ -4222,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" ht="28.8" spans="1:12">
+    <row r="93" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>105</v>
       </c>
@@ -4248,7 +3639,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>106</v>
       </c>
@@ -4258,8 +3649,6 @@
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94"/>
-      <c r="E94"/>
       <c r="H94">
         <v>600</v>
       </c>
@@ -4270,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>107</v>
       </c>
@@ -4293,7 +3682,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>109</v>
       </c>
@@ -4316,7 +3705,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>111</v>
       </c>
@@ -4330,7 +3719,7 @@
         <v>600</v>
       </c>
       <c r="I97">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="J97" t="s">
         <v>9</v>
@@ -4339,7 +3728,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>113</v>
       </c>
@@ -4349,7 +3738,6 @@
       <c r="C98">
         <v>1</v>
       </c>
-      <c r="D98"/>
       <c r="E98">
         <v>1</v>
       </c>
@@ -4360,7 +3748,7 @@
         <v>1025</v>
       </c>
       <c r="I98">
-        <v>8.54</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="J98" t="s">
         <v>9</v>
@@ -4369,7 +3757,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>115</v>
       </c>
@@ -4392,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>116</v>
       </c>
@@ -4421,7 +3809,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>118</v>
       </c>
@@ -4431,8 +3819,6 @@
       <c r="C101">
         <v>2</v>
       </c>
-      <c r="D101"/>
-      <c r="E101"/>
       <c r="H101">
         <v>1200</v>
       </c>
@@ -4443,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>119</v>
       </c>
@@ -4457,13 +3843,13 @@
         <v>1800</v>
       </c>
       <c r="I102">
-        <v>8.04</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="J102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>120</v>
       </c>
@@ -4477,13 +3863,13 @@
         <v>400</v>
       </c>
       <c r="I103">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J103" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>121</v>
       </c>
@@ -4493,8 +3879,6 @@
       <c r="C104">
         <v>1</v>
       </c>
-      <c r="D104"/>
-      <c r="E104"/>
       <c r="F104">
         <v>4</v>
       </c>
@@ -4508,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>122</v>
       </c>
@@ -4518,7 +3902,6 @@
       <c r="C105">
         <v>1</v>
       </c>
-      <c r="D105"/>
       <c r="E105">
         <v>1</v>
       </c>
@@ -4532,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>123</v>
       </c>
@@ -4552,7 +3935,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>124</v>
       </c>
@@ -4562,8 +3945,6 @@
       <c r="C107">
         <v>1</v>
       </c>
-      <c r="D107"/>
-      <c r="E107"/>
       <c r="H107">
         <v>600</v>
       </c>
@@ -4574,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>125</v>
       </c>
@@ -4588,13 +3969,13 @@
         <v>400</v>
       </c>
       <c r="I108">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J108" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>126</v>
       </c>
@@ -4617,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>127</v>
       </c>
@@ -4627,8 +4008,6 @@
       <c r="C110">
         <v>1</v>
       </c>
-      <c r="D110"/>
-      <c r="E110"/>
       <c r="F110">
         <v>7</v>
       </c>
@@ -4642,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>128</v>
       </c>
@@ -4665,7 +4044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>129</v>
       </c>
@@ -4679,7 +4058,7 @@
         <v>600</v>
       </c>
       <c r="I112">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J112" t="s">
         <v>9</v>
@@ -4688,7 +4067,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>131</v>
       </c>
@@ -4698,7 +4077,6 @@
       <c r="C113">
         <v>1</v>
       </c>
-      <c r="D113"/>
       <c r="E113">
         <v>4</v>
       </c>
@@ -4718,7 +4096,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>133</v>
       </c>
@@ -4738,7 +4116,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>134</v>
       </c>
@@ -4764,7 +4142,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>136</v>
       </c>
@@ -4778,7 +4156,7 @@
         <v>400</v>
       </c>
       <c r="I116">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J116" t="s">
         <v>9</v>
@@ -4787,7 +4165,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>138</v>
       </c>
@@ -4797,7 +4175,6 @@
       <c r="C117">
         <v>1</v>
       </c>
-      <c r="D117"/>
       <c r="E117">
         <v>2</v>
       </c>
@@ -4814,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>139</v>
       </c>
@@ -4843,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" ht="28.8" spans="1:10">
+    <row r="119" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>140</v>
       </c>
@@ -4869,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>141</v>
       </c>
@@ -4892,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" ht="28.8" spans="1:10">
+    <row r="121" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>142</v>
       </c>
@@ -4902,7 +4279,6 @@
       <c r="C121">
         <v>1</v>
       </c>
-      <c r="D121"/>
       <c r="E121">
         <v>10</v>
       </c>
@@ -4913,13 +4289,13 @@
         <v>2645</v>
       </c>
       <c r="I121">
-        <v>10.13</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="J121" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>143</v>
       </c>
@@ -4939,7 +4315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>144</v>
       </c>
@@ -4959,7 +4335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>145</v>
       </c>
@@ -4985,7 +4361,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>147</v>
       </c>
@@ -4999,13 +4375,13 @@
         <v>1200</v>
       </c>
       <c r="I125">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J125" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>148</v>
       </c>
@@ -5015,7 +4391,6 @@
       <c r="C126">
         <v>1</v>
       </c>
-      <c r="D126"/>
       <c r="E126">
         <v>1</v>
       </c>
@@ -5032,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>149</v>
       </c>
@@ -5055,14 +4430,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B128">
         <v>54</v>
       </c>
-      <c r="C128"/>
       <c r="E128">
         <v>3</v>
       </c>
@@ -5073,7 +4447,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>151</v>
       </c>
@@ -5086,7 +4460,6 @@
       <c r="D129">
         <v>1</v>
       </c>
-      <c r="E129"/>
       <c r="F129">
         <v>4</v>
       </c>
@@ -5100,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>152</v>
       </c>
@@ -5126,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>153</v>
       </c>
@@ -5136,8 +4509,6 @@
       <c r="C131">
         <v>4</v>
       </c>
-      <c r="D131"/>
-      <c r="E131"/>
       <c r="H131">
         <v>2400</v>
       </c>
@@ -5148,7 +4519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>154</v>
       </c>
@@ -5171,7 +4542,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>155</v>
       </c>
@@ -5181,8 +4552,6 @@
       <c r="C133">
         <v>1</v>
       </c>
-      <c r="D133"/>
-      <c r="E133"/>
       <c r="H133">
         <v>600</v>
       </c>
@@ -5193,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" ht="28.8" spans="1:12">
+    <row r="134" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>156</v>
       </c>
@@ -5225,7 +4594,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>158</v>
       </c>
@@ -5242,7 +4611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>159</v>
       </c>
@@ -5262,7 +4631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>160</v>
       </c>
@@ -5285,7 +4654,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>162</v>
       </c>
@@ -5308,7 +4677,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>164</v>
       </c>
@@ -5331,7 +4700,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>165</v>
       </c>
@@ -5341,7 +4710,6 @@
       <c r="C140">
         <v>1</v>
       </c>
-      <c r="D140"/>
       <c r="E140">
         <v>1</v>
       </c>
@@ -5358,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>166</v>
       </c>
@@ -5381,7 +4749,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>168</v>
       </c>
@@ -5407,7 +4775,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>169</v>
       </c>
@@ -5424,7 +4792,7 @@
         <v>280</v>
       </c>
       <c r="I143">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J143" t="s">
         <v>9</v>
@@ -5433,7 +4801,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>170</v>
       </c>
@@ -5447,7 +4815,7 @@
         <v>400</v>
       </c>
       <c r="I144">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="J144" t="s">
         <v>9</v>
@@ -5456,181 +4824,178 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K196"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="62.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="68.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="62.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -5658,14 +5023,14 @@
       <c r="I1">
         <v>200</v>
       </c>
-      <c r="J1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="J1" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5698,10 +5063,10 @@
         <v>16.55</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5733,10 +5098,10 @@
         <v>13.53</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -5769,10 +5134,10 @@
         <v>11.24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -5805,10 +5170,10 @@
         <v>12.05</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -5841,10 +5206,10 @@
         <v>12.61</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -5877,10 +5242,10 @@
         <v>16.57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -5913,10 +5278,10 @@
         <v>15.61</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -5946,15 +5311,15 @@
         <v>2</v>
       </c>
       <c r="J9">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5982,15 +5347,15 @@
         <v>2</v>
       </c>
       <c r="J10">
-        <v>9.28</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6021,10 +5386,10 @@
         <v>14.11</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -6057,10 +5422,10 @@
         <v>5.33</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -6093,10 +5458,10 @@
         <v>5.71</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -6129,10 +5494,10 @@
         <v>11</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -6165,10 +5530,10 @@
         <v>8.16</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -6201,10 +5566,10 @@
         <v>11.65</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -6237,10 +5602,10 @@
         <v>5.83</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -6273,10 +5638,10 @@
         <v>9.19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -6309,10 +5674,10 @@
         <v>16.03</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -6345,10 +5710,10 @@
         <v>13.08</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -6381,10 +5746,10 @@
         <v>10.84</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -6417,10 +5782,10 @@
         <v>11.24</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -6453,10 +5818,10 @@
         <v>16.98</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -6489,10 +5854,10 @@
         <v>20</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -6525,10 +5890,10 @@
         <v>20</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -6561,10 +5926,10 @@
         <v>16.41</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -6597,10 +5962,10 @@
         <v>15.29</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -6633,10 +5998,10 @@
         <v>10.32</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -6669,10 +6034,10 @@
         <v>9.76</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -6705,10 +6070,10 @@
         <v>13.53</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -6741,10 +6106,10 @@
         <v>16.97</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -6777,10 +6142,10 @@
         <v>18.87</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -6813,10 +6178,10 @@
         <v>17.39</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -6849,10 +6214,10 @@
         <v>10.91</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
@@ -6885,10 +6250,10 @@
         <v>13.24</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
@@ -6905,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F67" si="1">G36+H36+I36</f>
+        <f t="shared" ref="F36:F55" si="1">G36+H36+I36</f>
         <v>3</v>
       </c>
       <c r="G36">
@@ -6921,10 +6286,10 @@
         <v>13.7</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
@@ -6957,10 +6322,10 @@
         <v>13.38</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
@@ -6993,10 +6358,10 @@
         <v>10.06</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
@@ -7029,10 +6394,10 @@
         <v>14.49</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -7065,10 +6430,10 @@
         <v>11.64</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -7101,10 +6466,10 @@
         <v>9.41</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -7137,10 +6502,10 @@
         <v>10.94</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -7173,10 +6538,10 @@
         <v>12.06</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -7209,10 +6574,10 @@
         <v>13.61</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -7245,12 +6610,12 @@
         <v>5</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7281,12 +6646,12 @@
         <v>14.12</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7317,12 +6682,12 @@
         <v>14.63</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7353,12 +6718,12 @@
         <v>15</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7389,12 +6754,12 @@
         <v>11.21</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7425,12 +6790,12 @@
         <v>15.19</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7461,12 +6826,12 @@
         <v>15</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7497,12 +6862,12 @@
         <v>11.32</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7533,12 +6898,12 @@
         <v>10.34</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7569,12 +6934,12 @@
         <v>18.95</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7602,13 +6967,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>8.96</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>62</v>
       </c>
@@ -7640,10 +7005,10 @@
         <v>6.59</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>63</v>
       </c>
@@ -7660,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <f>G57+H57+I57</f>
+        <f t="shared" ref="F57:F68" si="2">G57+H57+I57</f>
         <v>2</v>
       </c>
       <c r="G57">
@@ -7676,10 +7041,10 @@
         <v>13.94</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>64</v>
       </c>
@@ -7696,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <f>G58+H58+I58</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G58">
@@ -7712,10 +7077,10 @@
         <v>11.85</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>65</v>
       </c>
@@ -7732,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <f>G59+H59+I59</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G59">
@@ -7748,10 +7113,10 @@
         <v>13.79</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>66</v>
       </c>
@@ -7768,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <f>G60+H60+I60</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G60">
@@ -7784,10 +7149,10 @@
         <v>9.64</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>67</v>
       </c>
@@ -7804,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <f>G61+H61+I61</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G61">
@@ -7820,10 +7185,10 @@
         <v>10.86</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" ht="28.8" spans="1:11">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>69</v>
       </c>
@@ -7840,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <f>G62+H62+I62</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G62">
@@ -7856,10 +7221,10 @@
         <v>12.69</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>70</v>
       </c>
@@ -7876,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <f>G63+H63+I63</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G63">
@@ -7892,10 +7257,10 @@
         <v>10</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>71</v>
       </c>
@@ -7912,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <f>G64+H64+I64</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G64">
@@ -7928,10 +7293,10 @@
         <v>6.37</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>73</v>
       </c>
@@ -7948,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <f>G65+H65+I65</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G65">
@@ -7964,10 +7329,10 @@
         <v>10.26</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
@@ -7984,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <f>G66+H66+I66</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G66">
@@ -8000,10 +7365,10 @@
         <v>11.73</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
@@ -8020,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <f>G67+H67+I67</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G67">
@@ -8036,10 +7401,10 @@
         <v>13.66</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
@@ -8056,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <f>G68+H68+I68</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G68">
@@ -8069,13 +7434,13 @@
         <v>4</v>
       </c>
       <c r="J68">
-        <v>10.13</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
@@ -8092,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <f t="shared" ref="F69:F100" si="2">G69+H69+I69</f>
+        <f t="shared" ref="F69:F100" si="3">G69+H69+I69</f>
         <v>2</v>
       </c>
       <c r="G69">
@@ -8105,13 +7470,13 @@
         <v>2</v>
       </c>
       <c r="J69">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
@@ -8128,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G70">
@@ -8144,10 +7509,10 @@
         <v>18.75</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
@@ -8164,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G71">
@@ -8180,10 +7545,10 @@
         <v>12.9</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>81</v>
       </c>
@@ -8200,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G72">
@@ -8216,10 +7581,10 @@
         <v>13.11</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>83</v>
       </c>
@@ -8236,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="G73">
@@ -8252,10 +7617,10 @@
         <v>10.86</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>84</v>
       </c>
@@ -8272,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G74">
@@ -8288,10 +7653,10 @@
         <v>10.09</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>85</v>
       </c>
@@ -8308,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G75">
@@ -8324,10 +7689,10 @@
         <v>11.25</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="76" ht="28.8" spans="1:11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>86</v>
       </c>
@@ -8344,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="G76">
@@ -8360,10 +7725,10 @@
         <v>8</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>87</v>
       </c>
@@ -8380,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G77">
@@ -8396,12 +7761,12 @@
         <v>18.25</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -8416,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G78">
@@ -8432,12 +7797,12 @@
         <v>11.11</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -8452,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G79">
@@ -8468,12 +7833,12 @@
         <v>15.09</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -8488,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G80">
@@ -8504,12 +7869,12 @@
         <v>9.52</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -8524,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G81">
@@ -8540,12 +7905,12 @@
         <v>9.89</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -8560,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G82">
@@ -8576,12 +7941,12 @@
         <v>11.8</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -8596,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G83">
@@ -8612,12 +7977,12 @@
         <v>5.5</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -8632,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G84">
@@ -8648,12 +8013,12 @@
         <v>13.35</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -8668,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G85">
@@ -8684,12 +8049,12 @@
         <v>11.49</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="86" ht="28.8" spans="1:11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -8704,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G86">
@@ -8720,12 +8085,12 @@
         <v>10.09</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -8740,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G87">
@@ -8756,12 +8121,12 @@
         <v>8.33</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -8776,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G88">
@@ -8792,12 +8157,12 @@
         <v>18.71</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -8812,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G89">
@@ -8825,15 +8190,15 @@
         <v>7</v>
       </c>
       <c r="J89">
-        <v>9.79</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -8848,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G90">
@@ -8864,12 +8229,12 @@
         <v>15.18</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -8884,7 +8249,7 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G91">
@@ -8900,12 +8265,12 @@
         <v>10.34</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -8920,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G92">
@@ -8936,12 +8301,12 @@
         <v>14.41</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="93" ht="28.8" spans="1:11">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -8956,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G93">
@@ -8972,12 +8337,12 @@
         <v>11.67</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="94" ht="28.8" spans="1:11">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -8992,7 +8357,7 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G94">
@@ -9008,10 +8373,10 @@
         <v>6.06</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>106</v>
       </c>
@@ -9028,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G95">
@@ -9044,10 +8409,10 @@
         <v>17.14</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>107</v>
       </c>
@@ -9064,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G96">
@@ -9080,10 +8445,10 @@
         <v>4.88</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>109</v>
       </c>
@@ -9100,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G97">
@@ -9116,10 +8481,10 @@
         <v>6.56</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>111</v>
       </c>
@@ -9136,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G98">
@@ -9149,13 +8514,13 @@
         <v>3</v>
       </c>
       <c r="J98">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>113</v>
       </c>
@@ -9172,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G99">
@@ -9185,13 +8550,13 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>8.54</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>115</v>
       </c>
@@ -9208,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G100">
@@ -9224,10 +8589,10 @@
         <v>20</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>116</v>
       </c>
@@ -9244,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <f t="shared" ref="F101:F145" si="3">G101+H101+I101</f>
+        <f t="shared" ref="F101:F145" si="4">G101+H101+I101</f>
         <v>2</v>
       </c>
       <c r="G101">
@@ -9260,10 +8625,10 @@
         <v>12.08</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>118</v>
       </c>
@@ -9280,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G102">
@@ -9296,10 +8661,10 @@
         <v>27.91</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>119</v>
       </c>
@@ -9316,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G103">
@@ -9329,13 +8694,13 @@
         <v>9</v>
       </c>
       <c r="J103">
-        <v>8.04</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>120</v>
       </c>
@@ -9352,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G104">
@@ -9365,13 +8730,13 @@
         <v>2</v>
       </c>
       <c r="J104">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>121</v>
       </c>
@@ -9388,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G105">
@@ -9404,10 +8769,10 @@
         <v>14.18</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>122</v>
       </c>
@@ -9424,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G106">
@@ -9440,12 +8805,12 @@
         <v>7.84</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -9460,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G107">
@@ -9476,10 +8841,10 @@
         <v>13.44</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>124</v>
       </c>
@@ -9496,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G108">
@@ -9512,10 +8877,10 @@
         <v>12.77</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>125</v>
       </c>
@@ -9532,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G109">
@@ -9545,13 +8910,13 @@
         <v>2</v>
       </c>
       <c r="J109">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>126</v>
       </c>
@@ -9568,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G110">
@@ -9584,10 +8949,10 @@
         <v>10.53</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>127</v>
       </c>
@@ -9604,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G111">
@@ -9620,10 +8985,10 @@
         <v>11.73</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>128</v>
       </c>
@@ -9640,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G112">
@@ -9656,10 +9021,10 @@
         <v>10.75</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>129</v>
       </c>
@@ -9676,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G113">
@@ -9689,13 +9054,13 @@
         <v>3</v>
       </c>
       <c r="J113">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>131</v>
       </c>
@@ -9712,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G114">
@@ -9728,12 +9093,12 @@
         <v>10.02</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -9748,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G115">
@@ -9764,10 +9129,10 @@
         <v>12.75</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>134</v>
       </c>
@@ -9784,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G116">
@@ -9800,10 +9165,10 @@
         <v>8.27</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>136</v>
       </c>
@@ -9820,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G117">
@@ -9833,13 +9198,13 @@
         <v>2</v>
       </c>
       <c r="J117">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>138</v>
       </c>
@@ -9856,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G118">
@@ -9872,10 +9237,10 @@
         <v>14.78</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>139</v>
       </c>
@@ -9892,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G119">
@@ -9911,7 +9276,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="120" ht="28.8" spans="1:11">
+    <row r="120" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>140</v>
       </c>
@@ -9928,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G120">
@@ -9944,10 +9309,10 @@
         <v>12.5</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>141</v>
       </c>
@@ -9964,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G121">
@@ -9980,10 +9345,10 @@
         <v>18.75</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="122" ht="28.8" spans="1:11">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>142</v>
       </c>
@@ -10000,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G122">
@@ -10013,13 +9378,13 @@
         <v>10</v>
       </c>
       <c r="J122">
-        <v>10.13</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="123" ht="13" customHeight="1" spans="1:11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>143</v>
       </c>
@@ -10036,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G123">
@@ -10055,7 +9420,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>144</v>
       </c>
@@ -10072,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G124">
@@ -10088,10 +9453,10 @@
         <v>8</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>145</v>
       </c>
@@ -10108,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G125">
@@ -10124,10 +9489,10 @@
         <v>7.67</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>147</v>
       </c>
@@ -10144,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G126">
@@ -10157,13 +9522,13 @@
         <v>6</v>
       </c>
       <c r="J126">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>148</v>
       </c>
@@ -10180,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G127">
@@ -10196,10 +9561,10 @@
         <v>9.89</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>149</v>
       </c>
@@ -10216,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G128">
@@ -10232,10 +9597,10 @@
         <v>8.9</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>150</v>
       </c>
@@ -10252,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G129">
@@ -10268,10 +9633,10 @@
         <v>11.11</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>151</v>
       </c>
@@ -10288,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G130">
@@ -10304,10 +9669,10 @@
         <v>9.59</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>152</v>
       </c>
@@ -10324,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G131">
@@ -10340,10 +9705,10 @@
         <v>13.46</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>153</v>
       </c>
@@ -10360,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G132">
@@ -10376,10 +9741,10 @@
         <v>11.01</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>154</v>
       </c>
@@ -10396,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G133">
@@ -10412,10 +9777,10 @@
         <v>8.6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>155</v>
       </c>
@@ -10432,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G134">
@@ -10448,10 +9813,10 @@
         <v>9.84</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="135" ht="28.8" spans="1:11">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>156</v>
       </c>
@@ -10468,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G135">
@@ -10484,10 +9849,10 @@
         <v>7.77</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>158</v>
       </c>
@@ -10504,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G136">
@@ -10520,10 +9885,10 @@
         <v>10</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>159</v>
       </c>
@@ -10540,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G137">
@@ -10556,10 +9921,10 @@
         <v>5.41</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>160</v>
       </c>
@@ -10576,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G138">
@@ -10592,12 +9957,12 @@
         <v>4.51</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -10612,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G139">
@@ -10628,10 +9993,10 @@
         <v>4.76</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>164</v>
       </c>
@@ -10648,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G140">
@@ -10664,10 +10029,10 @@
         <v>10.74</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>165</v>
       </c>
@@ -10684,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G141">
@@ -10700,10 +10065,10 @@
         <v>12.97</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>166</v>
       </c>
@@ -10720,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G142">
@@ -10736,10 +10101,10 @@
         <v>2.13</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>168</v>
       </c>
@@ -10756,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G143">
@@ -10772,10 +10137,10 @@
         <v>5.58</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>169</v>
       </c>
@@ -10792,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G144">
@@ -10805,13 +10170,13 @@
         <v>1</v>
       </c>
       <c r="J144">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>170</v>
       </c>
@@ -10828,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G145">
@@ -10841,187 +10206,168 @@
         <v>2</v>
       </c>
       <c r="J145">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="62.25" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>